--- a/修論/本文/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
+++ b/修論/本文/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FE348F-F066-4808-8932-7939DD3C0A63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9A7E9-A6B6-43A6-AC6D-B03F5EA105F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7980" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="2475" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="id_inverse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>L500_id</t>
     <phoneticPr fontId="1"/>
@@ -74,6 +75,26 @@
   </si>
   <si>
     <t>w300_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切片</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha_int/cm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2846F1F5-64D5-4739-9D4F-E2D1BFD55F4F}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -686,4 +707,63 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E7890-6CD0-48BF-9442-0F734CED5114}">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>10.8</v>
+      </c>
+      <c r="C2">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <f>1/C2</f>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="D4">
+        <v>0.32</v>
+      </c>
+      <c r="E4">
+        <f>B2*LN(1/D4)*C4</f>
+        <v>11.832586786956096</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>